--- a/www.eia.gov/electricity/monthly/xls/table_6_07_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_07_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
-  <si>
-    <t>Table 6.7.A. Capacity Factors for Utility Scale Generators Primarily Using Fossil Fuels, January 2013-October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+  <si>
+    <t>Table 6.7.A. Capacity Factors for Utility Scale Generators Primarily Using Fossil Fuels, January 2013-November 2016</t>
   </si>
   <si>
     <t/>
@@ -1056,7 +1056,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -2255,23 +2255,52 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D45" s="10">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E45" s="10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="10">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H45" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:I2"/>
